--- a/01_Documentation/02_resources/excel/analysis-requirements-documentation.xlsx
+++ b/01_Documentation/02_resources/excel/analysis-requirements-documentation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -114,9 +114,6 @@
     <t>A minimum of 2 SMART goals</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Control</t>
   </si>
   <si>
@@ -214,7 +211,7 @@
   </si>
   <si>
     <t>Each document should have
-- "How I ammroached the …"
+- "How I approached the …"
 - "How I managed the …"</t>
   </si>
 </sst>
@@ -627,9 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -657,7 +652,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -674,7 +669,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -691,16 +686,16 @@
     </row>
     <row r="4" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>8</v>
@@ -708,7 +703,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -716,16 +711,14 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -740,7 +733,7 @@
     </row>
     <row r="7" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -757,7 +750,7 @@
     </row>
     <row r="8" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
@@ -774,7 +767,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -791,7 +784,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -808,7 +801,7 @@
     </row>
     <row r="11" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
@@ -825,7 +818,7 @@
     </row>
     <row r="12" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>23</v>
@@ -840,7 +833,7 @@
     </row>
     <row r="13" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>23</v>
@@ -855,13 +848,13 @@
     </row>
     <row r="14" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="8" t="s">
@@ -870,13 +863,13 @@
     </row>
     <row r="15" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="8" t="s">
@@ -885,13 +878,13 @@
     </row>
     <row r="16" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="8" t="s">
@@ -900,13 +893,13 @@
     </row>
     <row r="17" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="8" t="s">
@@ -915,13 +908,13 @@
     </row>
     <row r="18" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="8" t="s">
@@ -930,13 +923,13 @@
     </row>
     <row r="19" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="8" t="s">
@@ -945,36 +938,36 @@
     </row>
     <row r="20" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/01_Documentation/02_resources/excel/analysis-requirements-documentation.xlsx
+++ b/01_Documentation/02_resources/excel/analysis-requirements-documentation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -213,13 +213,61 @@
     <t>Each document should have
 - "How I approached the …"
 - "How I managed the …"</t>
+  </si>
+  <si>
+    <t>Small description on the milestone itself in git</t>
+  </si>
+  <si>
+    <t>Gantt chart is derrived from the task list</t>
+  </si>
+  <si>
+    <t>Described in plan documentation</t>
+  </si>
+  <si>
+    <t>There is a section "realize design" with flowcharts sketches etc</t>
+  </si>
+  <si>
+    <t>There is a section "realize setup" with installations downloads etc</t>
+  </si>
+  <si>
+    <t>There is a section "realize implementation" with istep by sept</t>
+  </si>
+  <si>
+    <t>All issues are in git, labelled "bug" and with descriptiosn</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Can be found in the control document</t>
+  </si>
+  <si>
+    <t>Can be found in inform, and realize sections</t>
+  </si>
+  <si>
+    <t>Can be found in inform</t>
+  </si>
+  <si>
+    <t>Can be found in readme</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Can be found in the decision document</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +293,13 @@
       <b/>
       <sz val="11"/>
       <color theme="2" tint="-0.749961851863155"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,6 +396,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,18 +683,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.6328125" customWidth="1"/>
     <col min="3" max="3" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.90625" customWidth="1"/>
+    <col min="7" max="7" width="55.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -649,8 +713,14 @@
       <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -666,8 +736,14 @@
       <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -683,8 +759,14 @@
       <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
@@ -700,8 +782,14 @@
       <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -715,8 +803,14 @@
       <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
@@ -730,8 +824,14 @@
       <c r="E6" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
@@ -747,8 +847,14 @@
       <c r="E7" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
@@ -764,8 +870,14 @@
       <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -781,8 +893,14 @@
       <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -798,8 +916,14 @@
       <c r="E10" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
@@ -815,8 +939,10 @@
       <c r="E11" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
@@ -830,8 +956,14 @@
       <c r="E12" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
@@ -845,8 +977,10 @@
       <c r="E13" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -860,8 +994,14 @@
       <c r="E14" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -875,8 +1015,14 @@
       <c r="E15" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
@@ -890,8 +1036,14 @@
       <c r="E16" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -905,8 +1057,14 @@
       <c r="E17" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -920,8 +1078,14 @@
       <c r="E18" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -935,8 +1099,14 @@
       <c r="E19" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -952,8 +1122,10 @@
       <c r="E20" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -961,7 +1133,7 @@
         <v>59</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>60</v>
@@ -969,18 +1141,20 @@
       <c r="E21" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/01_Documentation/02_resources/excel/analysis-requirements-documentation.xlsx
+++ b/01_Documentation/02_resources/excel/analysis-requirements-documentation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>Can be found in the decision document</t>
+  </si>
+  <si>
+    <t>Can be found in the assesment document</t>
+  </si>
+  <si>
+    <t>In the respective documents</t>
   </si>
 </sst>
 </file>
@@ -686,7 +692,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -939,8 +945,12 @@
       <c r="E11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -977,8 +987,12 @@
       <c r="E13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
+      <c r="F13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -1122,8 +1136,12 @@
       <c r="E20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
+      <c r="F20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
@@ -1141,8 +1159,12 @@
       <c r="E21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
+      <c r="F21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
